--- a/market_data/cds_data.xlsx
+++ b/market_data/cds_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\바탕 화면\Python\CDS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project_FICC_Quant\market_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F6E12-5700-48FB-87D0-ABA7308D7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7230"/>
+    <workbookView xWindow="4140" yWindow="-19350" windowWidth="18720" windowHeight="11745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="USDIRS" sheetId="1" r:id="rId1"/>
@@ -109,15 +110,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -125,7 +126,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -133,7 +134,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -142,7 +143,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -151,7 +152,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -160,7 +161,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -168,7 +169,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -176,7 +177,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -184,7 +185,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -192,7 +193,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -201,7 +202,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -210,7 +211,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -218,7 +219,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -227,7 +228,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -235,7 +236,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -244,7 +245,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -253,7 +254,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -261,14 +262,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -706,53 +707,53 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 강조색1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 강조색6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 강조색6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 강조색6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="강조색1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="강조색2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="강조색3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="강조색4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="강조색5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="강조색6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="경고문" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="계산" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="나쁨" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="메모" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="보통" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="설명 텍스트" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="셀 확인" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="연결된 셀" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="요약" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="입력" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="제목" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="제목 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="제목 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="제목 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="제목 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="좋음" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="출력" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1029,20 +1030,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1057,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1070,7 +1071,7 @@
         <v>0.15390000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>0.18579999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1098,7 +1099,7 @@
         <v>0.2195</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>0.24479999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1127,7 @@
         <v>0.33450000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1140,7 +1141,7 @@
         <v>0.2155</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>0.3417</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>0.55200000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1210,7 +1211,7 @@
         <v>0.65700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>0.75070000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>0.8377</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>0.91020000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>1.0427999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>1.1583000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>1.2713000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>1.3262</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1322,19 +1323,19 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4">
       <c r="B25" s="1"/>
     </row>
   </sheetData>
@@ -1344,20 +1345,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1379,7 +1380,7 @@
         <v>8.3949999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>10.015000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>11.77</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>16.085000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>21.462499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>31.365000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
